--- a/biology/Médecine/François_Pourfour_du_Petit/François_Pourfour_du_Petit.xlsx
+++ b/biology/Médecine/François_Pourfour_du_Petit/François_Pourfour_du_Petit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Pourfour_du_Petit</t>
+          <t>François_Pourfour_du_Petit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Pourfour du Petit, dit Petit le médecin, né à Paris le 24 juin 1664 et mort dans la même ville le 18 juin 1741, est un médecin, naturaliste, anatomiste et ophtalmologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Pourfour_du_Petit</t>
+          <t>François_Pourfour_du_Petit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il interrompt ses études pour voyager en Belgique et en France. Il obtient son titre de docteur en médecine à Montpellier en 1690. Il vient à Paris où il complète sa formation auprès de Joseph Guichard Duverney (1648-1730) pour l’anatomie, d’Antoine de Jussieu (1686-1758) pour la botanique et de Jacques Lémery (1675-1721) pour la chimie.
 Il rejoint l'armée de Flandre en 1693 comme médecin militaire, fonction qu'il conserve jusqu'en 1713 au moment où la paix d'Utrecht est signée.Il devient adjoint anatomiste de l’Académie royale des sciences le 25 février 1722, puis associé chimiste le 5 septembre 1722, pensionnaire anatomiste le 5 septembre 1722 et pensionnaire anatomiste le 24 août 1725.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Pourfour_du_Petit</t>
+          <t>François_Pourfour_du_Petit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Portrait par Jean Restout, 1737, Paris, musée d'histoire de la médecine.</t>
         </is>
